--- a/ioaConditions/train1P1Block8.xlsx
+++ b/ioaConditions/train1P1Block8.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/02_pitito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/02_pallet.png</t>
-  </si>
-  <si>
-    <t>pngimages/07_suitcase.png</t>
+    <t>trainingaudio/04_kitoti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/04_ladder.png</t>
+  </si>
+  <si>
+    <t>pngimages/12_pie.png</t>
   </si>
 </sst>
 </file>

--- a/ioaConditions/train1P1Block8.xlsx
+++ b/ioaConditions/train1P1Block8.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/04_kitoti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika2.wav</t>
+    <t>trainingaudio/04_kitoti1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika2.mp3</t>
   </si>
   <si>
     <t>pngimages/04_ladder.png</t>

--- a/ioaConditions/train1P1Block8.xlsx
+++ b/ioaConditions/train1P1Block8.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/04_kitoti1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika2.mp3</t>
+    <t>trainingaudio/04_kitoti1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika2.ogg</t>
   </si>
   <si>
     <t>pngimages/04_ladder.png</t>

--- a/ioaConditions/train1P1Block8.xlsx
+++ b/ioaConditions/train1P1Block8.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/04_kitoti1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika2.ogg</t>
+    <t>trainingaudio/04_kitoti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika2.wav</t>
   </si>
   <si>
     <t>pngimages/04_ladder.png</t>
